--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Sybil_test(Finished)/Final/Compare_Figure.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Sybil_test(Finished)/Final/Compare_Figure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Sybil_test(SWIB)\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Sybil_test(Finished)\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DC6592-53B6-41AA-BC9D-5B379D1000DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5709D39-E719-4581-BDD0-A71B17A11D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latency" sheetId="2" r:id="rId1"/>
@@ -820,6 +820,1200 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Final!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Final!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.21476999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21626000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21543999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21676500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21717500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21651000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21903000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21948500000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22045000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22628000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D00-4E55-A3B9-5815864CE239}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Final!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Final!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.26190999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26063000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25404499999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24918999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24435999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24291999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.24043500000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.239285</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23930500000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3D00-4E55-A3B9-5815864CE239}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Final!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Final!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.52407999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41937999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38605499999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29647499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29003000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28504000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3D00-4E55-A3B9-5815864CE239}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="467764592"/>
+        <c:axId val="467765232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="467764592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="467765232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="467765232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="467764592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Final!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Final!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9531</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8518</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7540</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6618</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6542</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5595</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5571</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5427</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-64E9-4CEC-9F64-78D536FFE584}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Final!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Final!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7785</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7604</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7557</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7950</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7436</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-64E9-4CEC-9F64-78D536FFE584}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Final!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Final!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3515</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4094</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3711</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4036</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4142</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3528</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3590</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-64E9-4CEC-9F64-78D536FFE584}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="522776272"/>
+        <c:axId val="522777552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="522776272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522777552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="522777552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522776272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1538,6 +2732,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
@@ -2091,6 +3365,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2648,6 +4954,83 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC0A359-135C-D2CA-EB10-403CA12CBCBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7F54752-CEB2-DE55-10CC-987743F0F6F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2957,12 +5340,12 @@
       <selection activeCell="E2" sqref="E2:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2979,7 +5362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0.05</v>
       </c>
@@ -2996,7 +5379,7 @@
         <v>0.31674799999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0.1</v>
       </c>
@@ -3013,7 +5396,7 @@
         <v>0.30483399999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0.15</v>
       </c>
@@ -3030,7 +5413,7 @@
         <v>0.31775700000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>0.2</v>
       </c>
@@ -3047,7 +5430,7 @@
         <v>0.29650700000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>0.25</v>
       </c>
@@ -3064,7 +5447,7 @@
         <v>0.32073699999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>0.3</v>
       </c>
@@ -3081,7 +5464,7 @@
         <v>0.36191699999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>0.35</v>
       </c>
@@ -3098,7 +5481,7 @@
         <v>0.33462599999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>0.4</v>
       </c>
@@ -3115,7 +5498,7 @@
         <v>0.32791599999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>0.45</v>
       </c>
@@ -3132,7 +5515,7 @@
         <v>0.45657599999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>0.49</v>
       </c>
@@ -3149,37 +5532,37 @@
         <v>0.53668199999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E24" s="1"/>
     </row>
   </sheetData>
@@ -3195,15 +5578,15 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F11"/>
+      <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="13.375" customWidth="1"/>
+    <col min="1" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -3226,240 +5609,241 @@
         <v>500</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.05</v>
       </c>
       <c r="B2">
-        <v>0.21545</v>
+        <v>0.21476999999999996</v>
       </c>
       <c r="C2">
-        <v>0.24776000000000001</v>
+        <v>0.26190999999999998</v>
       </c>
       <c r="D2">
-        <v>0.54658499999999999</v>
+        <v>0.52407999999999999</v>
       </c>
       <c r="E2">
-        <v>9501</v>
+        <v>9531</v>
       </c>
       <c r="F2">
         <v>7435</v>
       </c>
       <c r="G2">
-        <v>3745</v>
+        <v>3515</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.1</v>
       </c>
       <c r="B3">
-        <v>0.216365</v>
+        <v>0.21626000000000001</v>
       </c>
       <c r="C3">
-        <v>0.26133499999999998</v>
+        <v>0.26063000000000003</v>
       </c>
       <c r="D3">
-        <v>0.50216000000000005</v>
+        <v>0.44993</v>
       </c>
       <c r="E3">
-        <v>9460</v>
+        <v>8518</v>
       </c>
       <c r="F3">
         <v>7832</v>
       </c>
       <c r="G3">
-        <v>4076</v>
+        <v>4094</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.15</v>
       </c>
       <c r="B4">
-        <v>0.21604000000000001</v>
+        <v>0.21543999999999999</v>
       </c>
       <c r="C4">
-        <v>0.22083000000000003</v>
+        <v>0.25404499999999997</v>
       </c>
       <c r="D4">
-        <v>0.45337499999999997</v>
+        <v>0.41937999999999998</v>
       </c>
       <c r="E4">
-        <v>9475</v>
+        <v>8551</v>
       </c>
       <c r="F4">
         <v>7415</v>
       </c>
       <c r="G4">
-        <v>4515</v>
+        <v>3904</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.2</v>
       </c>
       <c r="B5">
-        <v>0.19814000000000001</v>
+        <v>0.21676500000000001</v>
       </c>
       <c r="C5">
-        <v>0.23663500000000001</v>
+        <v>0.24918999999999999</v>
       </c>
       <c r="D5">
-        <v>0.41701000000000005</v>
+        <v>0.37540000000000001</v>
       </c>
       <c r="E5">
-        <v>9297</v>
+        <v>7554</v>
       </c>
       <c r="F5">
         <v>7785</v>
       </c>
       <c r="G5">
-        <v>4908</v>
+        <v>4362</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.25</v>
       </c>
       <c r="B6">
-        <v>0.21770500000000004</v>
+        <v>0.21717500000000001</v>
       </c>
       <c r="C6">
-        <v>0.23632500000000001</v>
+        <v>0.24435999999999999</v>
       </c>
       <c r="D6">
-        <v>0.39222000000000001</v>
+        <v>0.38605499999999998</v>
       </c>
       <c r="E6">
-        <v>9402</v>
+        <v>7540</v>
       </c>
       <c r="F6">
         <v>7795</v>
       </c>
       <c r="G6">
-        <v>4697</v>
+        <v>3711</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.3</v>
       </c>
       <c r="B7">
-        <v>0.15984499999999999</v>
+        <v>0.21651000000000001</v>
       </c>
       <c r="C7">
-        <v>0.21536</v>
+        <v>0.24291999999999997</v>
       </c>
       <c r="D7">
-        <v>0.33753499999999997</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="E7">
-        <v>8964</v>
+        <v>6618</v>
       </c>
       <c r="F7">
         <v>7604</v>
       </c>
       <c r="G7">
-        <v>3638</v>
+        <v>4036</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.35</v>
       </c>
       <c r="B8">
-        <v>0.181425</v>
+        <v>0.21903000000000003</v>
       </c>
       <c r="C8">
-        <v>0.178645</v>
+        <v>0.24043500000000001</v>
       </c>
       <c r="D8">
-        <v>0.35244999999999999</v>
+        <v>0.31979999999999997</v>
       </c>
       <c r="E8">
-        <v>9026</v>
+        <v>6542</v>
       </c>
       <c r="F8">
         <v>6875</v>
       </c>
       <c r="G8">
-        <v>5227</v>
+        <v>3840</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.4</v>
       </c>
       <c r="B9">
-        <v>0.201045</v>
+        <v>0.21948500000000001</v>
       </c>
       <c r="C9">
-        <v>0.21668000000000004</v>
+        <v>0.239285</v>
       </c>
       <c r="D9">
-        <v>0.31066500000000002</v>
+        <v>0.29647499999999999</v>
       </c>
       <c r="E9">
-        <v>9163</v>
+        <v>5595</v>
       </c>
       <c r="F9">
         <v>7557</v>
       </c>
       <c r="G9">
-        <v>5271</v>
+        <v>4142</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.45</v>
       </c>
       <c r="B10">
-        <v>0.184115</v>
+        <v>0.22045000000000001</v>
       </c>
       <c r="C10">
-        <v>0.23171999999999998</v>
+        <v>0.23930500000000002</v>
       </c>
       <c r="D10">
-        <v>0.28679500000000002</v>
+        <v>0.29003000000000001</v>
       </c>
       <c r="E10">
-        <v>8894</v>
+        <v>5571</v>
       </c>
       <c r="F10">
         <v>7950</v>
       </c>
       <c r="G10">
-        <v>4996</v>
+        <v>3528</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.49</v>
       </c>
       <c r="B11">
-        <v>0.170655</v>
+        <v>0.22628000000000004</v>
       </c>
       <c r="C11">
-        <v>0.22020000000000001</v>
+        <v>0.24029</v>
       </c>
       <c r="D11">
-        <v>0.28362500000000002</v>
+        <v>0.28504000000000002</v>
       </c>
       <c r="E11">
-        <v>8396</v>
+        <v>5427</v>
       </c>
       <c r="F11">
         <v>7436</v>
       </c>
       <c r="G11">
-        <v>5052</v>
+        <v>3590</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3471,12 +5855,12 @@
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3493,7 +5877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0.05</v>
       </c>
@@ -3510,7 +5894,7 @@
         <v>6462</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0.1</v>
       </c>
@@ -3527,7 +5911,7 @@
         <v>6715</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0.15</v>
       </c>
@@ -3544,7 +5928,7 @@
         <v>6442</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>0.2</v>
       </c>
@@ -3561,7 +5945,7 @@
         <v>6212</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>0.25</v>
       </c>
@@ -3578,7 +5962,7 @@
         <v>5743</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>0.3</v>
       </c>
@@ -3595,7 +5979,7 @@
         <v>5655</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>0.35</v>
       </c>
@@ -3612,7 +5996,7 @@
         <v>5504</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>0.4</v>
       </c>
@@ -3629,7 +6013,7 @@
         <v>4366</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>0.45</v>
       </c>
@@ -3646,7 +6030,7 @@
         <v>4034</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>0.49</v>
       </c>
@@ -3663,37 +6047,37 @@
         <v>3432</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E24" s="1"/>
     </row>
   </sheetData>
